--- a/resources/Bill_Of_Material.xlsx
+++ b/resources/Bill_Of_Material.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilfolr/Dropbox/ELEC4403/Deliverables/2 Project Budget/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Business\Dropbox\ELEC4403\PRESENTATION\2 Project Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17832" windowHeight="8196"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>Item</t>
   </si>
@@ -134,9 +128,6 @@
     <t>74C14 Hex Schmitt Trigger CMOS IC</t>
   </si>
   <si>
-    <t>Mini Type B 90 Deg. Horizontal SMD Mount USB 2.0</t>
-  </si>
-  <si>
     <t>6 Way DIP Switch</t>
   </si>
   <si>
@@ -240,19 +231,39 @@
   </si>
   <si>
     <t>CAT 6 network cable</t>
+  </si>
+  <si>
+    <t>310x200x50mm transparent casing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-owned </t>
+  </si>
+  <si>
+    <t>3-6.5mm DIA IP68 Waterproof Cable Glands - Pk.2</t>
+  </si>
+  <si>
+    <t>Storage box</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -263,6 +274,11 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -270,6 +286,18 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -297,22 +325,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -321,38 +385,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -665,411 +722,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="9"/>
+    <col min="1" max="1" width="5.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="4.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" style="25" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H1" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>34</v>
+      <c r="C2" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="F2" s="4">
-        <f t="shared" ref="F2:F25" si="0">$E2*$D2</f>
-        <v>2.75</v>
+      <c r="E2" s="5">
+        <v>4.95</v>
+      </c>
+      <c r="F2" s="6">
+        <f t="shared" ref="F2:F26" si="0">$E2*$D2</f>
+        <v>4.95</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>58</v>
+      <c r="C3" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>3.95</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <f t="shared" si="0"/>
         <v>3.95</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>6</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>6.8999999999999995</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>1.75</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>5.25</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>59</v>
+      <c r="B6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>0.5</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>60</v>
+      <c r="B7" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>0.5</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>10.9</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>10.9</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>10.9</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>3.95</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>3.95</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>1.75</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>1.25</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <v>1.35</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>1.35</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H12" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H13" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <v>0.3</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H14" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>35</v>
+      <c r="C15" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>4</v>
@@ -1077,309 +1134,337 @@
       <c r="E15" s="1">
         <v>1.95</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="6">
         <f t="shared" si="0"/>
         <v>7.8</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H15" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="5">
         <v>1.95</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="6">
         <f t="shared" si="0"/>
         <v>1.95</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H16" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="5">
         <v>0.48</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="6">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H17" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5">
         <v>1.65</v>
       </c>
-      <c r="F18" s="4">
-        <f t="shared" si="0"/>
-        <v>1.65</v>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="5">
         <v>1.75</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="6">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H19" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="3" t="s">
         <v>50</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="D20" s="2">
         <v>2</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="5">
         <v>5.95</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="6">
         <f t="shared" si="0"/>
         <v>11.9</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H20" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="C21" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="5">
         <v>5.5</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="6">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>61</v>
+      <c r="B22" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="D22" s="2">
         <v>7</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="5">
         <v>1.05</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="6">
         <f t="shared" si="0"/>
         <v>7.3500000000000005</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H22" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>62</v>
+      <c r="B23" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>61</v>
       </c>
       <c r="D23" s="2">
         <v>6</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="5">
         <v>1.4</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="6">
         <f t="shared" si="0"/>
         <v>8.3999999999999986</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H23" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>65</v>
+      <c r="B24" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="5">
         <v>5.4</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="6">
         <f t="shared" si="0"/>
         <v>5.4</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H24" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="27" t="s">
         <v>68</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="5">
         <v>1.3</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="6">
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="6" t="s">
+      <c r="H25" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="15">
-        <f>SUM(F2:F25)</f>
-        <v>98.079999999999984</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="16"/>
+      <c r="F27" s="21">
+        <f>SUM(F2:F26)</f>
+        <v>101.93</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" tooltip="4052 4-Channel Multiplexer/Demultiplexer CMOS IC" display="http://www.jaycar.com.au/4052-4-channel-multiplexer-demultiplexer-cmos-ic/p/ZC4052"/>
     <hyperlink ref="C17" r:id="rId2" tooltip="1uF 50VDC Low Leakage Electrolytic Capacitor" display="http://www.jaycar.com.au/1uf-50vdc-low-leakage-electrolytic-capacitor/p/RL6414"/>
     <hyperlink ref="C18" r:id="rId3" tooltip="Red Miniature Pushbutton - SPST Momentary Action 125V 1A rating" display="http://www.jaycar.com.au/red-miniature-pushbutton-spst-momentary-action-125v-1a-rating/p/SP0710"/>
+    <hyperlink ref="C2" r:id="rId4" tooltip="3-6.5mm DIA IP68 Waterproof Cable Glands - Pk.2" display="https://www.jaycar.com.au/3-6-5mm-dia-ip68-waterproof-cable-glands-pk-2/p/HP0720"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId4"/>
+  <pageSetup orientation="landscape" r:id="rId5"/>
 </worksheet>
 </file>
--- a/resources/Bill_Of_Material.xlsx
+++ b/resources/Bill_Of_Material.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Business\Dropbox\ELEC4403\PRESENTATION\2 Project Budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilfo\Dropbox\ELEC4403\Deliverables\2 Project Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17832" windowHeight="8196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17835" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
   <si>
     <t>Item</t>
   </si>
@@ -110,9 +110,6 @@
     <t>4013 Dual D Flip Flop CMOS IC</t>
   </si>
   <si>
-    <t>Red 5mm LED 12mCd Round Diffused</t>
-  </si>
-  <si>
     <t>50Kohm Multiturn Cermet Trimpot</t>
   </si>
   <si>
@@ -179,12 +176,6 @@
     <t>H0719</t>
   </si>
   <si>
-    <t>150 x 100mm 1" Pitch Vero Board PCB</t>
-  </si>
-  <si>
-    <t>H0712</t>
-  </si>
-  <si>
     <t>MC14495</t>
   </si>
   <si>
@@ -197,9 +188,6 @@
     <t>Hex to 7 segment latch / decorder LED driver</t>
   </si>
   <si>
-    <t>IC 74LS283 4BIT BINARY Adder</t>
-  </si>
-  <si>
     <t>3R3 0.25W 5% Carbon Film Resistor PK 10</t>
   </si>
   <si>
@@ -243,6 +231,33 @@
   </si>
   <si>
     <t>Storage box</t>
+  </si>
+  <si>
+    <t>IC 74LS283 4BITS BINARY Adder</t>
+  </si>
+  <si>
+    <t>6mm Nylon PCB Spacers - Pk.5</t>
+  </si>
+  <si>
+    <t>HP0980</t>
+  </si>
+  <si>
+    <t>Green 5mm LED 12mCd Round Diffused</t>
+  </si>
+  <si>
+    <t>Bolts, washers, and nuts (mixed)</t>
+  </si>
+  <si>
+    <t>Mounting accessaries</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>2m USB cable</t>
+  </si>
+  <si>
+    <t>DC power cable</t>
   </si>
 </sst>
 </file>
@@ -252,7 +267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,22 +276,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -290,22 +292,16 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -316,7 +312,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -324,95 +320,435 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -423,6 +759,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H28" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:H28"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Item" dataDxfId="3"/>
+    <tableColumn id="2" name="Part number" dataDxfId="7"/>
+    <tableColumn id="3" name="Part Name and Description" dataDxfId="2"/>
+    <tableColumn id="4" name="Qty" dataDxfId="6"/>
+    <tableColumn id="5" name="Price per unit" dataDxfId="1"/>
+    <tableColumn id="6" name="Price sum" dataDxfId="5"/>
+    <tableColumn id="7" name="Sources" dataDxfId="0"/>
+    <tableColumn id="8" name="Operating Voltage (V)" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -722,749 +1075,801 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="42.88671875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="4.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" style="25" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="11"/>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="60.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.25" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="G1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="13">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="32">
         <v>4.95</v>
       </c>
-      <c r="F2" s="6">
-        <f t="shared" ref="F2:F26" si="0">$E2*$D2</f>
+      <c r="F2" s="14">
+        <f t="shared" ref="F2:F27" si="0">$E2*$D2</f>
         <v>4.95</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="H2" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="13">
         <v>1</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="32">
         <v>3.95</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="14">
         <f t="shared" si="0"/>
         <v>3.95</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="13">
         <v>6</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="32">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="14">
         <f t="shared" si="0"/>
         <v>6.8999999999999995</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="H4" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="13">
         <v>3</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="32">
         <v>1.75</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="14">
         <f t="shared" si="0"/>
         <v>5.25</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="H5" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="13">
         <v>4</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="32">
         <v>0.5</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="H6" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="13">
         <v>3</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="32">
         <v>0.5</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="14">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="H7" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="D8" s="13">
         <v>1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="32">
         <v>10.9</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="14">
         <f t="shared" si="0"/>
         <v>10.9</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="G8" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="13">
         <v>1</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="32">
         <v>3.95</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="14">
         <f t="shared" si="0"/>
         <v>3.95</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32">
+        <v>1.75</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1.75</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="13">
         <v>1</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="32">
         <v>1.25</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="14">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="H11" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="13">
         <v>1</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="32">
         <v>1.35</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="14">
         <f t="shared" si="0"/>
         <v>1.35</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="H12" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="13">
         <v>1</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="32">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="14">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="H13" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="13">
         <v>2</v>
       </c>
-      <c r="E14" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="E14" s="32">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="13">
         <v>4</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="33">
         <v>1.95</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="14">
         <f t="shared" si="0"/>
         <v>7.8</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="H15" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="13">
         <v>1</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="32">
         <v>1.95</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="14">
         <f t="shared" si="0"/>
         <v>1.95</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="H16" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="32">
+        <v>0.48</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="13">
+        <v>2</v>
+      </c>
+      <c r="E18" s="32">
+        <v>1.65</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="13">
         <v>1</v>
       </c>
-      <c r="E17" s="5">
-        <v>0.48</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="0"/>
-        <v>0.48</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="E19" s="32">
+        <v>1.75</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="G19" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="H19" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="13">
         <v>2</v>
       </c>
-      <c r="E18" s="5">
-        <v>1.65</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="0"/>
-        <v>3.3</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="E20" s="34">
+        <v>5.95</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="0"/>
+        <v>11.9</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <v>20</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="13">
         <v>1</v>
       </c>
-      <c r="E19" s="5">
-        <v>1.75</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="E21" s="34">
+        <v>5.4</v>
+      </c>
+      <c r="F21" s="14">
+        <f>$E21*$D21</f>
+        <v>5.4</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+      <c r="E22" s="32">
+        <v>2.75</v>
+      </c>
+      <c r="F22" s="14">
+        <f>$E22*$D22</f>
+        <v>2.75</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>22</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="13">
+        <v>8</v>
+      </c>
+      <c r="E23" s="32">
+        <v>1.05</v>
+      </c>
+      <c r="F23" s="14">
+        <f>$E23*$D23</f>
+        <v>8.4</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <v>23</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="13">
+        <v>6</v>
+      </c>
+      <c r="E24" s="32">
+        <v>1.4</v>
+      </c>
+      <c r="F24" s="14">
+        <f>$E24*$D24</f>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="13">
         <v>2</v>
       </c>
-      <c r="E20" s="5">
-        <v>5.95</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="0"/>
-        <v>11.9</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="E25" s="32">
+        <v>1.3</v>
+      </c>
+      <c r="F25" s="14">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="G25" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="H25" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <v>25</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="13">
         <v>1</v>
       </c>
-      <c r="E21" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="2">
-        <v>7</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="0"/>
-        <v>7.3500000000000005</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="2">
-        <v>6</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1.4</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="0"/>
-        <v>8.3999999999999986</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="E26" s="32">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
+        <v>26</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="13">
         <v>1</v>
       </c>
-      <c r="E24" s="5">
-        <v>5.4</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="0"/>
-        <v>5.4</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="F25" s="6">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="E27" s="32">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
+        <v>27</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="13">
         <v>1</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E28" s="32">
         <v>0</v>
       </c>
-      <c r="F26" s="6">
-        <f t="shared" si="0"/>
+      <c r="F28" s="14">
         <v>0</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="8" t="s">
+      <c r="G28" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="21">
-        <f>SUM(F2:F26)</f>
-        <v>101.93</v>
-      </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="22"/>
+      <c r="F29" s="22">
+        <f>SUM(F2:F27)</f>
+        <v>99.63</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" s="23"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" tooltip="4052 4-Channel Multiplexer/Demultiplexer CMOS IC" display="http://www.jaycar.com.au/4052-4-channel-multiplexer-demultiplexer-cmos-ic/p/ZC4052"/>
-    <hyperlink ref="C17" r:id="rId2" tooltip="1uF 50VDC Low Leakage Electrolytic Capacitor" display="http://www.jaycar.com.au/1uf-50vdc-low-leakage-electrolytic-capacitor/p/RL6414"/>
-    <hyperlink ref="C18" r:id="rId3" tooltip="Red Miniature Pushbutton - SPST Momentary Action 125V 1A rating" display="http://www.jaycar.com.au/red-miniature-pushbutton-spst-momentary-action-125v-1a-rating/p/SP0710"/>
-    <hyperlink ref="C2" r:id="rId4" tooltip="3-6.5mm DIA IP68 Waterproof Cable Glands - Pk.2" display="https://www.jaycar.com.au/3-6-5mm-dia-ip68-waterproof-cable-glands-pk-2/p/HP0720"/>
-  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId5"/>
+  <pageSetup scale="82" orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>